--- a/spliced/walkingToRunning/2023-03-24_09-59-26/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-59-26/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.373939958640504</v>
+        <v>2.993003823075968</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.803763614382066</v>
+        <v>3.121233616556498</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.173938683101112</v>
+        <v>-0.8490933929171138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.315333305086406</v>
+        <v>-4.831494113377142</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.06512080941881</v>
+        <v>-9.479980850219709</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.673323219163079</v>
+        <v>16.28942495073587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.294339724949432</v>
+        <v>-9.035116481781008</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.421413966587609</v>
+        <v>-3.15880911350261</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.148212569100514</v>
+        <v>10.23342611789717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8399218440055944</v>
+        <v>7.237885883876157</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.577153750828322</v>
+        <v>-10.53579415593821</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.555277306692937</v>
+        <v>15.53679728507988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.04079060554504</v>
+        <v>-46.59491330555468</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.759801340103144</v>
+        <v>-20.57918526785712</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.139139270782471</v>
+        <v>-11.76733117784752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.878040352889391</v>
+        <v>-38.6563062940324</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.038073178700042</v>
+        <v>-8.040147893769365</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.935944042886998</v>
+        <v>-22.76833855765205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.905984619685584</v>
+        <v>-17.68361431530541</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.326261615753164</v>
+        <v>-12.95902962642049</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.109314686911449</v>
+        <v>-10.52790222508571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.805211918694661</v>
+        <v>-13.64767029626039</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.168965101242077</v>
+        <v>-8.337594250270474</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4999499320984389</v>
+        <v>4.581750222614684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.490708228519988</v>
+        <v>12.93104904038545</v>
       </c>
       <c r="B10" t="n">
-        <v>6.831392199652511</v>
+        <v>0.6822976725441974</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.942101519448406</v>
+        <v>10.89643403462002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.993003823075968</v>
+        <v>-0.9200370788569145</v>
       </c>
       <c r="B11" t="n">
-        <v>3.121233616556498</v>
+        <v>-13.92125396728488</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8490933929171138</v>
+        <v>-0.9832572937009605</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.831494113377142</v>
+        <v>-8.313682734966347</v>
       </c>
       <c r="B12" t="n">
-        <v>-9.479980850219709</v>
+        <v>-9.559037576615895</v>
       </c>
       <c r="C12" t="n">
-        <v>16.28942495073587</v>
+        <v>-17.89249617712833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-9.035116481781008</v>
+        <v>-8.376615575381617</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.15880911350261</v>
+        <v>-8.225071150490136</v>
       </c>
       <c r="C13" t="n">
-        <v>10.23342611789717</v>
+        <v>-15.93280724116742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.237885883876157</v>
+        <v>0.8738524981906739</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.53579415593821</v>
+        <v>-4.53215429782872</v>
       </c>
       <c r="C14" t="n">
-        <v>15.53679728507988</v>
+        <v>15.28993327277035</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-46.59491330555468</v>
+        <v>-0.01965822492311098</v>
       </c>
       <c r="B15" t="n">
-        <v>-20.57918526785712</v>
+        <v>16.21388537543142</v>
       </c>
       <c r="C15" t="n">
-        <v>-11.76733117784752</v>
+        <v>17.33802195957751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-38.6563062940324</v>
+        <v>-10.3103993143354</v>
       </c>
       <c r="B16" t="n">
-        <v>-8.040147893769365</v>
+        <v>-31.18352238791278</v>
       </c>
       <c r="C16" t="n">
-        <v>-22.76833855765205</v>
+        <v>18.67163455826883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-17.68361431530541</v>
+        <v>22.02176739828893</v>
       </c>
       <c r="B17" t="n">
-        <v>-12.95902962642049</v>
+        <v>-22.72049116407177</v>
       </c>
       <c r="C17" t="n">
-        <v>-10.52790222508571</v>
+        <v>-2.185512433732939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-13.64767029626039</v>
+        <v>5.463320446014379</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.337594250270474</v>
+        <v>6.157036137580864</v>
       </c>
       <c r="C18" t="n">
-        <v>4.581750222614684</v>
+        <v>-27.94153518676758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.93104904038545</v>
+        <v>-37.06017020089279</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6822976725441974</v>
+        <v>-23.85922709873728</v>
       </c>
       <c r="C19" t="n">
-        <v>10.89643403462002</v>
+        <v>0.4766027178080634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.9200370788569145</v>
+        <v>-19.13142990640274</v>
       </c>
       <c r="B20" t="n">
-        <v>-13.92125396728488</v>
+        <v>-10.62035506112288</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9832572937009605</v>
+        <v>8.715779474803668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.313682734966347</v>
+        <v>6.810042284216134</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.559037576615895</v>
+        <v>8.792214941978534</v>
       </c>
       <c r="C21" t="n">
-        <v>-17.89249617712833</v>
+        <v>-5.953527409689759</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.03172696658525354</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-6.182636371680525</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.13081671851015</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12.65357358115054</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.313164901733439</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.5251411982945</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.714159175328177</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-9.301818609237403</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-17.37430092947822</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-5.424608945846559</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-50.41501617431641</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.802897453308105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.029158597333116</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-28.14689919608023</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.423780044487627</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.23876049859135</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.670972211020553</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.751934364863664</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12.21474557604104</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-7.668160905156817</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.514941801343662</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.01306713649177</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.441266550336438</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.73728098188129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.6987579890658431</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-8.856165681566392</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-19.26768711635043</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-16.89904033115963</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-34.02156884329665</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.39472787039573</v>
       </c>
     </row>
   </sheetData>
